--- a/relatorios/Relatorio (Guilherme Henrique).xlsx
+++ b/relatorios/Relatorio (Guilherme Henrique).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.santos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agrocontar.sharepoint.com/sites/teams-suporte/Shared Documents/Arquivos/Retrospectiva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2319A2D-0D04-488D-A353-39C5E9CBDCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4ED77A64-5D32-4A57-B419-EBC51BD08B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4AB64CB-0E08-43AD-AFEB-3C0A63172343}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8586E7B3-6EA8-4966-8AC3-88AD96C217BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8586E7B3-6EA8-4966-8AC3-88AD96C217BC}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV - 2023" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>Tarefa</t>
   </si>
@@ -118,13 +118,43 @@
     <t>Resultado_e_Aprendizado</t>
   </si>
   <si>
-    <t xml:space="preserve">teste um teste um  um teste teste um teste um teste um  um teste teste um </t>
-  </si>
-  <si>
     <t>Card de Erro por Chamados</t>
   </si>
   <si>
     <t>Card de Erro por Analise</t>
+  </si>
+  <si>
+    <t>Cadastro E-docs</t>
+  </si>
+  <si>
+    <t>Melhor mapeamento e registros dos chamados, concientização para uso do GLPI</t>
+  </si>
+  <si>
+    <t>Melhoria na velocidade de construção da tela</t>
+  </si>
+  <si>
+    <t>Comunicação Boa com os Devs</t>
+  </si>
+  <si>
+    <t>Aulas Acertivvas e melhor dinâmica das aulas</t>
+  </si>
+  <si>
+    <t>Atualização do PDI e melhor visão do futuro</t>
+  </si>
+  <si>
+    <t>Boa comunicação com os Usuarios</t>
+  </si>
+  <si>
+    <t>Desenvolvimento no aprendizado do Python</t>
+  </si>
+  <si>
+    <t>Novas experiencias!</t>
+  </si>
+  <si>
+    <t>Melhora na comunicação com dev e testes em sí</t>
+  </si>
+  <si>
+    <t>Menos erros subindo para HML</t>
   </si>
 </sst>
 </file>
@@ -134,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +241,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -326,9 +371,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +390,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +835,7 @@
       <c r="AG1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -897,7 +946,7 @@
     </row>
     <row r="3" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -935,7 +984,7 @@
     </row>
     <row r="4" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -1045,7 +1094,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="29"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1086,7 +1135,7 @@
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1667,7 +1716,7 @@
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C18" s="17"/>
@@ -1983,9 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F1AB67-6F65-435B-8965-DB031181F56F}">
   <dimension ref="A1:AH107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="T1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2222,7 @@
     </row>
     <row r="3" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2211,7 +2260,7 @@
     </row>
     <row r="4" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3274,17 +3323,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35980F64-EC35-4EE2-80A9-ABC40DCBEC3C}">
-  <dimension ref="A1:AH108"/>
+  <dimension ref="A1:AH109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.21875" style="2" customWidth="1"/>
-    <col min="2" max="33" width="20.77734375" style="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
+    <col min="3" max="33" width="20.77734375" style="1"/>
     <col min="34" max="34" width="87.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="20.77734375" style="1"/>
   </cols>
@@ -3397,9 +3447,7 @@
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -3429,38 +3477,58 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="R2" s="7">
+        <v>3</v>
+      </c>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="7">
+        <v>3</v>
+      </c>
+      <c r="X2" s="7">
+        <v>2</v>
+      </c>
       <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="Z2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>4</v>
+      </c>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
+      <c r="AD2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1</v>
+      </c>
       <c r="AG2" s="8">
-        <f t="shared" ref="AG2:AG19" si="0">SUBTOTAL(9,B2:AF2)</f>
-        <v>11</v>
+        <f t="shared" ref="AG2:AG20" si="0">SUBTOTAL(9,B2:AF2)</f>
+        <v>33</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3472,7 +3540,9 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -3485,18 +3555,23 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AE3" s="7">
+        <v>1</v>
+      </c>
       <c r="AF3" s="7"/>
-      <c r="AG3" s="8"/>
+      <c r="AG3" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>1</v>
       </c>
       <c r="E4" s="7"/>
@@ -3513,27 +3588,37 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="AA4" s="7">
+        <v>1</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="7">
+        <v>1</v>
+      </c>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="29">
+        <v>1</v>
+      </c>
       <c r="AG4" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AH4" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="AH4" s="27"/>
     </row>
     <row r="5" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3569,28 +3654,44 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="11">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="T5" s="11">
+        <v>2.361111111111111E-2</v>
+      </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
+      <c r="AA5" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="AD5" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AG5" s="11">
         <f t="shared" si="0"/>
-        <v>0.54513888888888884</v>
-      </c>
-      <c r="AH5" s="10"/>
+        <v>0.7548611111111112</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3618,26 +3719,48 @@
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="P6" s="11">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="R6" s="11">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="T6" s="11">
+        <v>4.4444444444444446E-2</v>
+      </c>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="W6" s="11">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="X6" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="AF6" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="AG6" s="11">
         <f t="shared" si="0"/>
-        <v>0.13263888888888889</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="AH6" s="10"/>
     </row>
@@ -3657,7 +3780,9 @@
       <c r="K7" s="11">
         <v>6.5277777777777782E-2</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="11">
+        <v>7.6388888888888895E-2</v>
+      </c>
       <c r="M7" s="11">
         <v>0.14097222222222222</v>
       </c>
@@ -3682,9 +3807,11 @@
       <c r="AF7" s="11"/>
       <c r="AG7" s="11">
         <f t="shared" si="0"/>
-        <v>0.20624999999999999</v>
-      </c>
-      <c r="AH7" s="10"/>
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -3711,21 +3838,31 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
+      <c r="W8" s="11">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="X8" s="11">
+        <v>5.5555555555555552E-2</v>
+      </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="AA8" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
+      <c r="AE8" s="11">
+        <v>3.125E-2</v>
+      </c>
       <c r="AF8" s="11"/>
       <c r="AG8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -3747,26 +3884,35 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="P9" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="11">
+        <v>0.1076388888888889</v>
+      </c>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
+      <c r="AE9" s="11">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="AH9" s="9"/>
     </row>
@@ -3794,9 +3940,13 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="14">
+        <v>1.5972222222222224E-2</v>
+      </c>
       <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="R10" s="14">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
@@ -3804,18 +3954,26 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="Z10" s="11">
+        <v>3.125E-2</v>
+      </c>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="AE10" s="11">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="AG10" s="11">
         <f t="shared" si="0"/>
-        <v>4.3055555555555555E-2</v>
-      </c>
-      <c r="AH10" s="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -3842,27 +4000,39 @@
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="S11" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="X11" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="Z11" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
+      <c r="AE11" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
       <c r="AF11" s="11"/>
       <c r="AG11" s="11">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AH11" s="9"/>
+        <v>0.18055555555555552</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -3897,13 +4067,17 @@
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
+      <c r="AE12" s="11">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="AF12" s="11"/>
       <c r="AG12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="10"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -3940,7 +4114,9 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
+      <c r="AA13" s="11">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
@@ -3948,9 +4124,11 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11">
         <f t="shared" si="0"/>
-        <v>0.11180555555555555</v>
-      </c>
-      <c r="AH13" s="10"/>
+        <v>0.16041666666666665</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -3972,7 +4150,9 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="11">
+        <v>0.11666666666666665</v>
+      </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -3989,7 +4169,7 @@
       <c r="AF14" s="11"/>
       <c r="AG14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="AH14" s="10"/>
     </row>
@@ -4012,8 +4192,12 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="Q15" s="11">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
@@ -4030,7 +4214,7 @@
       <c r="AF15" s="11"/>
       <c r="AG15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17222222222222222</v>
       </c>
       <c r="AH15" s="9"/>
     </row>
@@ -4039,44 +4223,72 @@
         <v>14</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>5.8333333333333327E-2</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11">
+        <v>1.5972222222222224E-2</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="11">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2.2916666666666669E-2</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="P16" s="11">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>7.1527777777777787E-2</v>
+      </c>
       <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
+      <c r="S16" s="11">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="T16" s="11">
+        <v>2.361111111111111E-2</v>
+      </c>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
+      <c r="Z16" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>3.8194444444444441E-2</v>
+      </c>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
+      <c r="AD16" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>3.125E-2</v>
+      </c>
       <c r="AG16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="9"/>
-    </row>
-    <row r="17" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="AH16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="11"/>
@@ -4095,7 +4307,9 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -4114,106 +4328,164 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11">
         <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AH17" s="9"/>
+    </row>
+    <row r="18" spans="1:34" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="T18" s="11">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AH17" s="9"/>
-    </row>
-    <row r="18" spans="1:34" ht="43.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
       <c r="AG18" s="11">
         <f t="shared" si="0"/>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="AH18" s="9"/>
+    </row>
+    <row r="19" spans="1:34" ht="43.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="AH18" s="17"/>
-    </row>
-    <row r="19" spans="1:34" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26">
-        <v>3.9583333333333331E-2</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26">
-        <v>2.361111111111111E-2</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0.15416666666666667</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
       <c r="AG19" s="11">
         <f t="shared" si="0"/>
-        <v>0.33194444444444443</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="AH19" s="17"/>
     </row>
-    <row r="20" spans="1:34" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="J20" s="25">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="K20" s="25">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33194444444444449</v>
+      </c>
+      <c r="AH20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -4221,6 +4493,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
+      <c r="AH23" s="30"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -4476,6 +4749,9 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4483,8 +4759,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F152DC8ED30443BC5302D9C19451F1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d643f0bf36b055e6505d14df3aa4cda3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5c877af-4602-4bc8-ba04-bcec30261f42" xmlns:ns3="8724abbc-4eb3-4646-8b1c-262822deec9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="caf4ff216eaecce86386bf356f3ddbcd" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a5c877af-4602-4bc8-ba04-bcec30261f42">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8724abbc-4eb3-4646-8b1c-262822deec9a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F152DC8ED30443BC5302D9C19451F1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eacad220b9372a9168f0d0978e4b54b7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5c877af-4602-4bc8-ba04-bcec30261f42" xmlns:ns3="8724abbc-4eb3-4646-8b1c-262822deec9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c0ac853090c95cc101ab469824d0dfd" ns2:_="" ns3:_="">
     <xsd:import namespace="a5c877af-4602-4bc8-ba04-bcec30261f42"/>
     <xsd:import namespace="8724abbc-4eb3-4646-8b1c-262822deec9a"/>
     <xsd:element name="properties">
@@ -4505,6 +4801,7 @@
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4562,6 +4859,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4705,41 +5007,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a5c877af-4602-4bc8-ba04-bcec30261f42">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8724abbc-4eb3-4646-8b1c-262822deec9a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E64072-2977-409D-ABE3-AEF81651B520}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B69A887-9105-4AEF-A048-BF3E5AD752D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a5c877af-4602-4bc8-ba04-bcec30261f42"/>
-    <ds:schemaRef ds:uri="8724abbc-4eb3-4646-8b1c-262822deec9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4756,9 +5027,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B69A887-9105-4AEF-A048-BF3E5AD752D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C50B9E5-8C98-411E-BFCF-22F79048512C}"/>
 </file>